--- a/03_詳細設計/命名規則_Kintai15.xlsx
+++ b/03_詳細設計/命名規則_Kintai15.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kyoceragp-my.sharepoint.com/personal/michi_sato_ke_kyocera_jp/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kyoceragp-my.sharepoint.com/personal/michi_sato_ke_kyocera_jp/Documents/デスクトップ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F77EAF4-C633-485E-B841-106C76EAF735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="8_{3F77EAF4-C633-485E-B841-106C76EAF735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B28C653F-3C66-413B-AB09-A7A2BF9808C6}"/>
   <bookViews>
-    <workbookView xWindow="3432" yWindow="360" windowWidth="18816" windowHeight="11952" xr2:uid="{75BE6775-4C12-44D0-9C61-0D0FAA7B6E77}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{75BE6775-4C12-44D0-9C61-0D0FAA7B6E77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="86">
   <si>
     <t>■ 00_ログイン画面</t>
   </si>
@@ -79,10 +79,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>クラス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ログイン</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -384,6 +380,66 @@
   </si>
   <si>
     <t>ExportRepositoryImpl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TopController</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブルに対応</t>
+    <rPh sb="5" eb="7">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ﾌｫｰﾑﾃﾞｰﾀを受け取る</t>
+    <rPh sb="9" eb="10">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LoginForm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WorkInfo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UserInfo</t>
+  </si>
+  <si>
+    <t>UserInfo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RegistFrom</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EditForm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SearchForm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ExportForm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UserRegistForm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UserDeleteForm</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -510,13 +566,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -535,29 +588,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -893,10 +946,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF5021ED-A5AB-4AFF-A7BA-1FA3988A150C}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -908,388 +961,420 @@
     <col min="5" max="5" width="20.19921875" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
     <col min="7" max="7" width="21.59765625" customWidth="1"/>
-    <col min="8" max="8" width="16.59765625" customWidth="1"/>
+    <col min="8" max="8" width="14.09765625" customWidth="1"/>
+    <col min="9" max="9" width="17.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" s="2" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" s="2" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="2" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" s="2" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" s="2" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" s="2" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11" s="4" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A15" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="5" t="s">
+      <c r="C16" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A19" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A20" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A15" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A16" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A17" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A18" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A20" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="6" t="s">
+      <c r="G21" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F20" s="14" t="s">
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="14"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A24" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A25" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="F27" t="s">
         <v>67</v>
       </c>
-      <c r="G20" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A21" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A22" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A23" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="6"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A24" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="6"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A25" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="6"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F27" t="s">
-        <v>68</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="22">
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="H21:H25"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="D21:D25"/>
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="G16:G18"/>
     <mergeCell ref="G21:G25"/>
@@ -1299,12 +1384,6 @@
     <mergeCell ref="F21:F25"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="F16:F18"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="D21:D25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/03_詳細設計/命名規則_Kintai15.xlsx
+++ b/03_詳細設計/命名規則_Kintai15.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kyoceragp-my.sharepoint.com/personal/michi_sato_ke_kyocera_jp/Documents/デスクトップ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="8_{3F77EAF4-C633-485E-B841-106C76EAF735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B28C653F-3C66-413B-AB09-A7A2BF9808C6}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="8_{3F77EAF4-C633-485E-B841-106C76EAF735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEA6F023-8B41-4E9E-B8CE-AC36151CE13F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{75BE6775-4C12-44D0-9C61-0D0FAA7B6E77}"/>
   </bookViews>
@@ -327,10 +327,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>AccountsRepository</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>RegistRepository</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -363,10 +359,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>AccountsRepositoryImpl</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>RegistRepositoryImpl</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -404,10 +396,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>LoginForm</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>WorkInfo</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -440,6 +428,18 @@
   </si>
   <si>
     <t>UserDeleteForm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UserRepository</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UserRepositoryImpl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UserLoginForm</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -594,6 +594,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -601,15 +610,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -949,7 +949,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1051,10 +1051,10 @@
         <v>61</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
@@ -1074,16 +1074,16 @@
         <v>54</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
@@ -1094,7 +1094,7 @@
         <v>26</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -1110,26 +1110,26 @@
       <c r="B14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="H14" s="12" t="s">
+      <c r="F14" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" s="9" t="s">
         <v>77</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
@@ -1139,13 +1139,13 @@
       <c r="B15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="8" t="s">
@@ -1154,26 +1154,26 @@
       <c r="B16" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>81</v>
+      <c r="F16" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
@@ -1183,13 +1183,13 @@
       <c r="B17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="8" t="s">
@@ -1198,13 +1198,13 @@
       <c r="B18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="8" t="s">
@@ -1223,16 +1223,16 @@
         <v>57</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
@@ -1252,16 +1252,16 @@
         <v>58</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
@@ -1271,23 +1271,23 @@
       <c r="B21" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>78</v>
+      <c r="F21" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="I21" s="5"/>
     </row>
@@ -1298,14 +1298,14 @@
       <c r="B22" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="12" t="s">
-        <v>84</v>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="9" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
@@ -1315,13 +1315,13 @@
       <c r="B23" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="14"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="10"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="8" t="s">
@@ -1330,14 +1330,14 @@
       <c r="B24" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="12" t="s">
-        <v>85</v>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="9" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
@@ -1347,34 +1347,21 @@
       <c r="B25" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="F27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="H21:H25"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="D21:D25"/>
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="G16:G18"/>
     <mergeCell ref="G21:G25"/>
@@ -1384,6 +1371,19 @@
     <mergeCell ref="F21:F25"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="F16:F18"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="D21:D25"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="H21:H25"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="I24:I25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/03_詳細設計/命名規則_Kintai15.xlsx
+++ b/03_詳細設計/命名規則_Kintai15.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kyoceragp-my.sharepoint.com/personal/michi_sato_ke_kyocera_jp/Documents/デスクトップ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="8_{3F77EAF4-C633-485E-B841-106C76EAF735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEA6F023-8B41-4E9E-B8CE-AC36151CE13F}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="8_{3F77EAF4-C633-485E-B841-106C76EAF735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DEF174DF-A1FC-4A42-9C47-6928ED51A24F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{75BE6775-4C12-44D0-9C61-0D0FAA7B6E77}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="79">
   <si>
     <t>■ 00_ログイン画面</t>
   </si>
@@ -327,54 +327,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>RegistRepository</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>EditRepository</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SearchRepository</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ExportRepository</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>↑同じテーブルを見に行くならレポジトリも１つにまとめた方がいい？ｶﾓ</t>
-    <rPh sb="1" eb="2">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RegistRepositoryImpl</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>EditRepositoryImpl</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SearchRepositoryImpl</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ExportRepositoryImpl</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>TopController</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -440,6 +392,14 @@
   </si>
   <si>
     <t>UserLoginForm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WorkRepository</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WorkRepositoryImpl</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -594,22 +554,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -946,10 +906,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF5021ED-A5AB-4AFF-A7BA-1FA3988A150C}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1051,10 +1011,10 @@
         <v>61</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
@@ -1074,16 +1034,16 @@
         <v>54</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H12" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
@@ -1094,7 +1054,7 @@
         <v>26</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -1110,26 +1070,26 @@
       <c r="B14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="I14" s="9" t="s">
+      <c r="F14" s="9" t="s">
         <v>77</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
@@ -1139,13 +1099,13 @@
       <c r="B15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="8" t="s">
@@ -1154,26 +1114,26 @@
       <c r="B16" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="I16" s="9" t="s">
+      <c r="F16" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="9" t="s">
         <v>78</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
@@ -1183,13 +1143,13 @@
       <c r="B17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="8" t="s">
@@ -1198,13 +1158,13 @@
       <c r="B18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="8" t="s">
@@ -1223,16 +1183,16 @@
         <v>57</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
@@ -1252,16 +1212,16 @@
         <v>58</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H20" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>74</v>
-      </c>
       <c r="I20" s="5" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
@@ -1271,23 +1231,23 @@
       <c r="B21" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="H21" s="9" t="s">
+      <c r="F21" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" s="12" t="s">
         <v>75</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>66</v>
       </c>
       <c r="I21" s="5"/>
     </row>
@@ -1298,14 +1258,14 @@
       <c r="B22" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="9" t="s">
-        <v>81</v>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="12" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
@@ -1315,13 +1275,13 @@
       <c r="B23" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="10"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="14"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="8" t="s">
@@ -1330,14 +1290,14 @@
       <c r="B24" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="9" t="s">
-        <v>82</v>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="12" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
@@ -1347,21 +1307,29 @@
       <c r="B25" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="F27" t="s">
-        <v>66</v>
-      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="H21:H25"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="D21:D25"/>
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="G16:G18"/>
     <mergeCell ref="G21:G25"/>
@@ -1371,19 +1339,6 @@
     <mergeCell ref="F21:F25"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="F16:F18"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="D21:D25"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="H21:H25"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="I24:I25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/03_詳細設計/命名規則_Kintai15.xlsx
+++ b/03_詳細設計/命名規則_Kintai15.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kyoceragp-my.sharepoint.com/personal/michi_sato_ke_kyocera_jp/Documents/デスクトップ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k250415081\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="8_{3F77EAF4-C633-485E-B841-106C76EAF735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DEF174DF-A1FC-4A42-9C47-6928ED51A24F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95358C5-C258-4A09-B344-AF9FB18D947C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{75BE6775-4C12-44D0-9C61-0D0FAA7B6E77}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{75BE6775-4C12-44D0-9C61-0D0FAA7B6E77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -353,9 +353,6 @@
   </si>
   <si>
     <t>UserInfo</t>
-  </si>
-  <si>
-    <t>UserInfo</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -400,6 +397,11 @@
   </si>
   <si>
     <t>WorkRepositoryImpl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RegistInfo,
+Department</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -526,7 +528,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -554,6 +556,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -564,13 +575,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -908,87 +913,87 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF5021ED-A5AB-4AFF-A7BA-1FA3988A150C}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="17.09765625" customWidth="1"/>
-    <col min="2" max="2" width="19.796875" customWidth="1"/>
+    <col min="1" max="1" width="17.08203125" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="18.296875" customWidth="1"/>
-    <col min="5" max="5" width="20.19921875" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="21.59765625" customWidth="1"/>
-    <col min="8" max="8" width="14.09765625" customWidth="1"/>
-    <col min="9" max="9" width="17.69921875" customWidth="1"/>
+    <col min="7" max="7" width="21.58203125" customWidth="1"/>
+    <col min="8" max="8" width="14.08203125" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -1017,7 +1022,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="8" t="s">
         <v>11</v>
       </c>
@@ -1034,19 +1039,19 @@
         <v>54</v>
       </c>
       <c r="F12" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="H12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="H12" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="8" t="s">
         <v>12</v>
       </c>
@@ -1063,110 +1068,110 @@
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="G14" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="I14" s="12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I14" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="G16" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="I16" s="12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I16" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="8" t="s">
         <v>18</v>
       </c>
@@ -1183,19 +1188,19 @@
         <v>57</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>65</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="8" t="s">
         <v>19</v>
       </c>
@@ -1212,124 +1217,111 @@
         <v>58</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>65</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G21" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>66</v>
+      <c r="H21" s="15" t="s">
+        <v>78</v>
       </c>
       <c r="I21" s="5"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="14"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="10"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="H21:H25"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="D21:D25"/>
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="G16:G18"/>
     <mergeCell ref="G21:G25"/>
@@ -1339,6 +1331,19 @@
     <mergeCell ref="F21:F25"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="F16:F18"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="D21:D25"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="H21:H25"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="I24:I25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/03_詳細設計/命名規則_Kintai15.xlsx
+++ b/03_詳細設計/命名規則_Kintai15.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k250415081\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00240404590\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95358C5-C258-4A09-B344-AF9FB18D947C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B632AEE-DDB3-4AF7-952B-A53CFF3276E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{75BE6775-4C12-44D0-9C61-0D0FAA7B6E77}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{75BE6775-4C12-44D0-9C61-0D0FAA7B6E77}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="命名規則" sheetId="1" r:id="rId1"/>
+    <sheet name="外部出力" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="83">
   <si>
     <t>■ 00_ログイン画面</t>
   </si>
@@ -368,10 +369,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ExportForm</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>UserRegistForm</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -402,6 +399,44 @@
   <si>
     <t>RegistInfo,
 Department</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GETリクエスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/exportExcel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外部出力画面に遷移用</t>
+    <rPh sb="0" eb="6">
+      <t>ガイブシュツリョクガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エクセル出力（ボタン押下でリクエスト送信）</t>
+    <rPh sb="4" eb="6">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ソウシン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -528,7 +563,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -556,26 +591,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -913,87 +951,87 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF5021ED-A5AB-4AFF-A7BA-1FA3988A150C}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.08203125" customWidth="1"/>
-    <col min="2" max="2" width="19.83203125" customWidth="1"/>
+    <col min="1" max="1" width="17.09765625" customWidth="1"/>
+    <col min="2" max="2" width="19.796875" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="20.1640625" customWidth="1"/>
+    <col min="4" max="4" width="18.296875" customWidth="1"/>
+    <col min="5" max="5" width="20.19921875" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="21.58203125" customWidth="1"/>
-    <col min="8" max="8" width="14.08203125" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="21.59765625" customWidth="1"/>
+    <col min="8" max="8" width="14.09765625" customWidth="1"/>
+    <col min="9" max="9" width="17.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -1022,7 +1060,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="8" t="s">
         <v>11</v>
       </c>
@@ -1039,19 +1077,19 @@
         <v>54</v>
       </c>
       <c r="F12" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>66</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="8" t="s">
         <v>12</v>
       </c>
@@ -1061,117 +1099,129 @@
       <c r="C13" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="D13" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G14" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="I14" s="12" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G16" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="I16" s="12" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="8" t="s">
         <v>18</v>
       </c>
@@ -1188,10 +1238,10 @@
         <v>57</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>65</v>
@@ -1200,7 +1250,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="8" t="s">
         <v>19</v>
       </c>
@@ -1217,111 +1267,126 @@
         <v>58</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>65</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="G21" s="9" t="s">
-        <v>74</v>
-      </c>
       <c r="H21" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="I21" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="I21" s="5"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="10"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="14"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="H21:H25"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="D21:D25"/>
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="G16:G18"/>
     <mergeCell ref="G21:G25"/>
@@ -1331,21 +1396,48 @@
     <mergeCell ref="F21:F25"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="F16:F18"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="D21:D25"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="H21:H25"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="I24:I25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E7525E-9053-4C56-BD2F-41959C7ACE40}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="18.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>